--- a/cmip6/machines/cmip6_ipsl_machines.xlsx
+++ b/cmip6/machines/cmip6_ipsl_machines.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="321">
   <si>
     <t xml:space="preserve">ES-DOC CMIP6 Institute Machines</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lustre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lustre: Lustre parallel file system.</t>
   </si>
   <si>
     <t xml:space="preserve">4AOP-v1-5</t>
@@ -1000,7 +1003,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -1196,17 +1199,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="14"/>
@@ -1342,7 +1334,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1631,16 +1623,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1655,7 +1639,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11143,8 +11127,8 @@
   </sheetPr>
   <dimension ref="A1:F869"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A280" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E298" activeCellId="0" sqref="E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11357,9 +11341,9 @@
     </row>
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="59"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11414,18 +11398,18 @@
       <c r="C35" s="71"/>
     </row>
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="71"/>
     </row>
     <row r="37" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11448,19 +11432,19 @@
       <c r="C40" s="71"/>
     </row>
     <row r="41" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="71"/>
       <c r="C41" s="71"/>
     </row>
     <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="71"/>
     </row>
     <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="73" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="32"/>
@@ -11468,13 +11452,13 @@
       <c r="D43" s="32"/>
     </row>
     <row r="44" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
     </row>
     <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="73" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="32" t="n">
@@ -11614,11 +11598,11 @@
       <c r="D66" s="70"/>
     </row>
     <row r="67" s="2" customFormat="true" ht="65.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
     </row>
     <row r="68" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13322,11 +13306,11 @@
       <c r="F277" s="28"/>
     </row>
     <row r="278" s="2" customFormat="true" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B278" s="77" t="s">
+      <c r="B278" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="C278" s="77"/>
-      <c r="D278" s="77"/>
+      <c r="C278" s="75"/>
+      <c r="D278" s="75"/>
       <c r="F278" s="28"/>
     </row>
     <row r="279" s="2" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13409,13 +13393,13 @@
       <c r="F288" s="28"/>
     </row>
     <row r="289" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="73"/>
+      <c r="A289" s="72"/>
       <c r="B289" s="71"/>
       <c r="C289" s="71"/>
       <c r="F289" s="28"/>
     </row>
     <row r="290" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="73"/>
+      <c r="A290" s="72"/>
       <c r="B290" s="71" t="s">
         <v>39</v>
       </c>
@@ -13506,7 +13490,9 @@
     </row>
     <row r="303" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="62"/>
-      <c r="B303" s="32"/>
+      <c r="B303" s="32" t="s">
+        <v>302</v>
+      </c>
       <c r="C303" s="32"/>
       <c r="D303" s="32"/>
     </row>
@@ -13628,12 +13614,12 @@
       <c r="C321" s="71"/>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="73"/>
+      <c r="A322" s="72"/>
       <c r="B322" s="71"/>
       <c r="C322" s="71"/>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="73"/>
+      <c r="A323" s="72"/>
       <c r="B323" s="71" t="s">
         <v>39</v>
       </c>
@@ -14061,7 +14047,7 @@
         <v>231</v>
       </c>
       <c r="B389" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C389" s="24"/>
       <c r="D389" s="24"/>
@@ -14084,7 +14070,7 @@
         <v>233</v>
       </c>
       <c r="B392" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C392" s="24"/>
       <c r="D392" s="24"/>
@@ -14107,7 +14093,7 @@
         <v>235</v>
       </c>
       <c r="B395" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C395" s="24"/>
       <c r="D395" s="24"/>
@@ -14130,7 +14116,7 @@
         <v>237</v>
       </c>
       <c r="B398" s="24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C398" s="24"/>
       <c r="D398" s="24"/>
@@ -14153,7 +14139,7 @@
         <v>239</v>
       </c>
       <c r="B401" s="24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C401" s="24"/>
       <c r="D401" s="24"/>
@@ -14176,7 +14162,7 @@
         <v>241</v>
       </c>
       <c r="B404" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C404" s="24"/>
       <c r="D404" s="24"/>
@@ -14196,10 +14182,10 @@
     </row>
     <row r="407" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B407" s="24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C407" s="24"/>
       <c r="D407" s="24"/>
@@ -14365,7 +14351,7 @@
         <v>256</v>
       </c>
       <c r="B429" s="24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C429" s="24"/>
       <c r="D429" s="24"/>
@@ -14411,7 +14397,7 @@
         <v>265</v>
       </c>
       <c r="B435" s="24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C435" s="24"/>
       <c r="D435" s="24"/>
@@ -14457,7 +14443,7 @@
         <v>269</v>
       </c>
       <c r="B441" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C441" s="24"/>
       <c r="D441" s="24"/>
@@ -14730,7 +14716,7 @@
     </row>
     <row r="477" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B477" s="24" t="s">
         <v>291</v>
@@ -14753,7 +14739,7 @@
     </row>
     <row r="480" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B480" s="24" t="s">
         <v>293</v>
@@ -14775,11 +14761,11 @@
       <c r="D482" s="58"/>
     </row>
     <row r="483" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B483" s="78" t="s">
-        <v>315</v>
-      </c>
-      <c r="C483" s="78"/>
-      <c r="D483" s="78"/>
+      <c r="B483" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="C483" s="76"/>
+      <c r="D483" s="76"/>
     </row>
     <row r="484" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B484" s="58"/>
@@ -17509,8 +17495,8 @@
   </sheetPr>
   <dimension ref="A1:F869"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A280" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B303" activeCellId="0" sqref="B303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17601,7 +17587,7 @@
     </row>
     <row r="11" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -17723,9 +17709,9 @@
     </row>
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="59"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17749,7 +17735,7 @@
     </row>
     <row r="31" s="2" customFormat="true" ht="148.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
@@ -17780,16 +17766,16 @@
       <c r="C35" s="71"/>
     </row>
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="71"/>
     </row>
     <row r="37" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17812,19 +17798,19 @@
       <c r="C40" s="71"/>
     </row>
     <row r="41" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="71"/>
       <c r="C41" s="71"/>
     </row>
     <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="71"/>
     </row>
     <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="73" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="32" t="n">
@@ -17834,13 +17820,13 @@
       <c r="D43" s="32"/>
     </row>
     <row r="44" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
     </row>
     <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="73" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="32"/>
@@ -17978,11 +17964,11 @@
       <c r="D66" s="70"/>
     </row>
     <row r="67" s="2" customFormat="true" ht="65.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
     </row>
     <row r="68" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18283,7 +18269,7 @@
     <row r="109" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="45"/>
       <c r="B109" s="32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C109" s="32"/>
       <c r="D109" s="32"/>
@@ -18746,7 +18732,7 @@
     </row>
     <row r="162" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F162" s="28"/>
     </row>
@@ -19686,11 +19672,11 @@
       <c r="F277" s="28"/>
     </row>
     <row r="278" s="2" customFormat="true" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B278" s="77" t="s">
+      <c r="B278" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="C278" s="77"/>
-      <c r="D278" s="77"/>
+      <c r="C278" s="75"/>
+      <c r="D278" s="75"/>
       <c r="F278" s="28"/>
     </row>
     <row r="279" s="2" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19775,13 +19761,13 @@
       <c r="F288" s="28"/>
     </row>
     <row r="289" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="73"/>
+      <c r="A289" s="72"/>
       <c r="B289" s="71"/>
       <c r="C289" s="71"/>
       <c r="F289" s="28"/>
     </row>
     <row r="290" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="73"/>
+      <c r="A290" s="72"/>
       <c r="B290" s="71" t="s">
         <v>39</v>
       </c>
@@ -19872,7 +19858,9 @@
     </row>
     <row r="303" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="62"/>
-      <c r="B303" s="32"/>
+      <c r="B303" s="32" t="s">
+        <v>302</v>
+      </c>
       <c r="C303" s="32"/>
       <c r="D303" s="32"/>
     </row>
@@ -19994,12 +19982,12 @@
       <c r="C321" s="71"/>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="73"/>
+      <c r="A322" s="72"/>
       <c r="B322" s="71"/>
       <c r="C322" s="71"/>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="73"/>
+      <c r="A323" s="72"/>
       <c r="B323" s="71" t="s">
         <v>39</v>
       </c>
@@ -20427,7 +20415,7 @@
         <v>231</v>
       </c>
       <c r="B389" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C389" s="24"/>
       <c r="D389" s="24"/>
@@ -20450,7 +20438,7 @@
         <v>233</v>
       </c>
       <c r="B392" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C392" s="24"/>
       <c r="D392" s="24"/>
@@ -20473,7 +20461,7 @@
         <v>235</v>
       </c>
       <c r="B395" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C395" s="24"/>
       <c r="D395" s="24"/>
@@ -20496,7 +20484,7 @@
         <v>237</v>
       </c>
       <c r="B398" s="24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C398" s="24"/>
       <c r="D398" s="24"/>
@@ -20519,7 +20507,7 @@
         <v>239</v>
       </c>
       <c r="B401" s="24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C401" s="24"/>
       <c r="D401" s="24"/>
@@ -20542,7 +20530,7 @@
         <v>241</v>
       </c>
       <c r="B404" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C404" s="24"/>
       <c r="D404" s="24"/>
@@ -20562,10 +20550,10 @@
     </row>
     <row r="407" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B407" s="24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C407" s="24"/>
       <c r="D407" s="24"/>
@@ -20731,7 +20719,7 @@
         <v>256</v>
       </c>
       <c r="B429" s="24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C429" s="24"/>
       <c r="D429" s="24"/>
@@ -20777,7 +20765,7 @@
         <v>265</v>
       </c>
       <c r="B435" s="24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C435" s="24"/>
       <c r="D435" s="24"/>
@@ -20823,7 +20811,7 @@
         <v>269</v>
       </c>
       <c r="B441" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C441" s="24"/>
       <c r="D441" s="24"/>
@@ -21096,7 +21084,7 @@
     </row>
     <row r="477" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B477" s="24" t="s">
         <v>291</v>
@@ -21119,7 +21107,7 @@
     </row>
     <row r="480" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B480" s="24" t="s">
         <v>293</v>
@@ -21141,11 +21129,11 @@
       <c r="D482" s="58"/>
     </row>
     <row r="483" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B483" s="78" t="s">
-        <v>315</v>
-      </c>
-      <c r="C483" s="78"/>
-      <c r="D483" s="78"/>
+      <c r="B483" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="C483" s="76"/>
+      <c r="D483" s="76"/>
     </row>
     <row r="484" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B484" s="58"/>

--- a/cmip6/machines/cmip6_ipsl_machines.xlsx
+++ b/cmip6/machines/cmip6_ipsl_machines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" state="visible" r:id="rId2"/>
@@ -929,18 +929,18 @@
     <t xml:space="preserve">Linux</t>
   </si>
   <si>
+    <t xml:space="preserve">Intel® Sandy Bridge EP (E5-2680)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lustre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lustre: Lustre parallel file system.</t>
+  </si>
+  <si>
     <t xml:space="preserve">InfiniBand QDR Full Fat Tree network</t>
   </si>
   <si>
-    <t xml:space="preserve">Intel® Sandy Bridge EP (E5-2680)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lustre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lustre: Lustre parallel file system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">4AOP-v1-5</t>
   </si>
   <si>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">Intel Xeon 8168 (SKL) bi-processors nodes - 2.7 GHz, 24 cores/proc, 192 GB of DDR4 memory / node, InfiniBand EDR interconnect.</t>
   </si>
   <si>
-    <t xml:space="preserve">InfiniBand EDR interconnect</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intel Xeon 8168 (SKL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InfiniBand EDR interconnect.</t>
   </si>
 </sst>
 </file>
@@ -11127,8 +11127,8 @@
   </sheetPr>
   <dimension ref="A1:F869"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A280" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E298" activeCellId="0" sqref="E298"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A319" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B347" activeCellId="0" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11902,9 +11902,7 @@
     </row>
     <row r="109" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="45"/>
-      <c r="B109" s="32" t="s">
-        <v>299</v>
-      </c>
+      <c r="B109" s="32"/>
       <c r="C109" s="32"/>
       <c r="D109" s="32"/>
       <c r="F109" s="28"/>
@@ -12366,7 +12364,7 @@
     </row>
     <row r="162" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F162" s="28"/>
     </row>
@@ -13450,7 +13448,7 @@
     </row>
     <row r="297" s="2" customFormat="true" ht="117" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B297" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C297" s="32"/>
       <c r="D297" s="32"/>
@@ -13491,7 +13489,7 @@
     <row r="303" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="62"/>
       <c r="B303" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C303" s="32"/>
       <c r="D303" s="32"/>
@@ -13767,7 +13765,9 @@
       <c r="C346" s="71"/>
     </row>
     <row r="347" s="2" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B347" s="27"/>
+      <c r="B347" s="27" t="s">
+        <v>302</v>
+      </c>
       <c r="C347" s="27"/>
       <c r="D347" s="27"/>
     </row>
@@ -17495,8 +17495,8 @@
   </sheetPr>
   <dimension ref="A1:F869"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A280" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B303" activeCellId="0" sqref="B303"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B109" activeCellId="0" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18268,9 +18268,7 @@
     </row>
     <row r="109" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="45"/>
-      <c r="B109" s="32" t="s">
-        <v>319</v>
-      </c>
+      <c r="B109" s="32"/>
       <c r="C109" s="32"/>
       <c r="D109" s="32"/>
       <c r="F109" s="28"/>
@@ -18732,7 +18730,7 @@
     </row>
     <row r="162" s="2" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F162" s="28"/>
     </row>
@@ -19730,7 +19728,7 @@
     </row>
     <row r="285" s="2" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B285" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C285" s="32"/>
       <c r="D285" s="32"/>
@@ -19818,7 +19816,7 @@
     </row>
     <row r="297" s="2" customFormat="true" ht="117" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B297" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C297" s="32"/>
       <c r="D297" s="32"/>
@@ -19859,7 +19857,7 @@
     <row r="303" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="62"/>
       <c r="B303" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C303" s="32"/>
       <c r="D303" s="32"/>
@@ -20135,7 +20133,9 @@
       <c r="C346" s="71"/>
     </row>
     <row r="347" s="2" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B347" s="27"/>
+      <c r="B347" s="27" t="s">
+        <v>320</v>
+      </c>
       <c r="C347" s="27"/>
       <c r="D347" s="27"/>
     </row>
